--- a/data.xlsx
+++ b/data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>WorkDAY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,11 +40,63 @@
     <t>r=500,p=5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>r=1000,p=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=1500,p=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=2000,p=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=2500,p=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=3000,p=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=3500,p=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clusters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonWorkDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clusters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,8 +180,1570 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39121336178065197"/>
+          <c:y val="6.215565733266229E-2"/>
+          <c:w val="0.60823195906691441"/>
+          <c:h val="0.83642365784879191"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=500,p=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0B9-466E-8993-B538DBF0F270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=1000,p=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0B9-466E-8993-B538DBF0F270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=1500,p=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D0B9-466E-8993-B538DBF0F270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=2000,p=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D0B9-466E-8993-B538DBF0F270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=2500,p=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D0B9-466E-8993-B538DBF0F270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=3000,p=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$53:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D0B9-466E-8993-B538DBF0F270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=3500,p=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$63:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$63:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D0B9-466E-8993-B538DBF0F270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1751266991"/>
+        <c:axId val="1751270319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1751266991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>timeID</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751270319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1751270319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>cluster</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751266991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476026</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -414,15 +2029,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +2045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -444,7 +2059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -457,14 +2072,8 @@
       <c r="E3">
         <v>138</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -477,79 +2086,45 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>280</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
         <v>295</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>320</v>
       </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
         <v>230</v>
       </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -562,78 +2137,599 @@
       <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="G12">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>416</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>399</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>517</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>515</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>553</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>597</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>573</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>612</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>593</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>623</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>574</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>625</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16">
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G26">
-        <v>23</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="34">
   <si>
     <t>WorkDAY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,66 @@
   </si>
   <si>
     <t>clusters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p=5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WorDay </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> clusters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonWorkDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=3500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,7 +1211,1106 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>r=1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$40:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-64E9-4C5C-A8FD-5E74AEBC714A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>r=3000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$88:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-64E9-4C5C-A8FD-5E74AEBC714A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>custom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$16:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-64E9-4C5C-A8FD-5E74AEBC714A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>r=5000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$112:$B$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-64E9-4C5C-A8FD-5E74AEBC714A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1809458992"/>
+        <c:axId val="1809470640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1809458992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>is/not WokDay&amp;timeID</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.60360823785742546"/>
+              <c:y val="0.91264989169294197"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809470640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1809470640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>clusters</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4861993269138661E-2"/>
+              <c:y val="0.11197792336537443"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809458992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$R$13:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$16:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AF3-430D-9D03-EDA27E921F1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1139633328"/>
+        <c:axId val="1139635408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1139633328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>is/not workDay&amp;timeID</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139635408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1139635408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>clusters</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139633328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1707,6 +2866,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1734,6 +3925,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2031,7 +4287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -2654,15 +4910,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2670,7 +4926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2684,57 +4940,941 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
+      </c>
+      <c r="B8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>67</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>133</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>268</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>139</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>141</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>131</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>131</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>97</v>
+      </c>
+      <c r="F64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>97</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>133</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>97</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>133</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>97</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>133</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>